--- a/4 Sensors/Sensor Bits per Second Optimizing.xlsx
+++ b/4 Sensors/Sensor Bits per Second Optimizing.xlsx
@@ -8,12 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\GTOR-DAQ\4 Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B5592C-033F-4C3A-8B1D-406AC9C36F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED274241-FD23-49A1-8488-08CCBDFA942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C266F95-D56F-4A56-B616-ACDAB9F5864D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{2C266F95-D56F-4A56-B616-ACDAB9F5864D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Packet #1" sheetId="1" r:id="rId1"/>
+    <sheet name="Packet #2" sheetId="2" r:id="rId2"/>
+    <sheet name="Packet #3" sheetId="3" r:id="rId3"/>
+    <sheet name="Packet #4" sheetId="4" r:id="rId4"/>
+    <sheet name="Packet #5" sheetId="5" r:id="rId5"/>
+    <sheet name="Packet #6" sheetId="6" r:id="rId6"/>
+    <sheet name="Packet #7" sheetId="7" r:id="rId7"/>
+    <sheet name="Packet #8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="24">
   <si>
     <t>Data Type</t>
   </si>
@@ -91,12 +98,30 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Max data points/sec</t>
+  </si>
+  <si>
+    <t>Minimum data points/sec</t>
+  </si>
+  <si>
+    <t>Original packet</t>
+  </si>
+  <si>
+    <t>Higher speed and time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +145,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,69 +178,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -215,39 +191,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,272 +555,2570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432D2EA0-2A0E-4348-9BFC-C5F6D1A83843}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>16</v>
       </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C39A25-0668-4FDA-843D-376DAC30AE90}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
       <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>20</v>
       </c>
-      <c r="F3" s="3">
-        <f>C3*D3*E3</f>
+      <c r="G4" s="2">
+        <f>D4*E4*F4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <f>D5*E5*F5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <f>D6*E6*F6</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <f>D7*E7*F7</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2">
+        <f>D8*E8*F8</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2">
+        <f>D9*E9*F9</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <f>D10*E10*F10</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <f>D11*E11*F11</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <f>D12*E12*F12</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2">
+        <f>D14*E14*F14</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:E15" si="0">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="F15" s="3">
+        <f>SUM(F3:F14)</f>
+        <v>260</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>9614</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8327AF-D7B5-451E-AAAC-66108A1AFCA9}">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>7607</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2FC7C-1C3F-4B04-A5F6-CE4CF730119C}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256EE24A-2EE2-4C4F-AD7B-9E2AB6DD038E}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>32</v>
       </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1968F7B-75C3-40CB-B1EA-4B658522FE17}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
       <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
-        <f>C4*D4*E4</f>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
         <v>1920</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB0771B-AC25-4BCE-A421-9FEB796E90D0}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>32</v>
       </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA57258-4A78-471C-8AB7-2D326CAD2DE9}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
-        <f>C5*D5*E5</f>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
         <v>32</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
-        <f>C6*D6*E6</f>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
         <v>20</v>
       </c>
-      <c r="F7" s="3">
-        <f>C7*D7*E7</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3">
-        <f>C8*D8*E8</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <f>C9*D9*E9</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3">
-        <f>C10*D10*E10</f>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <f>C11*D11*E11</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <f>C12*D12*E12</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <f>C13*D13*E13</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <f>C14*D14*E14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5">
-        <f>SUM(C3:C14)</f>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
         <v>21</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" ref="D15:F15" si="0">SUM(D3:D14)</f>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
         <v>4247</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/4 Sensors/Sensor Bits per Second Optimizing.xlsx
+++ b/4 Sensors/Sensor Bits per Second Optimizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\GTOR-DAQ\4 Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED274241-FD23-49A1-8488-08CCBDFA942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225CF87-A6A4-4C0C-AD49-AC7E42CF5EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{2C266F95-D56F-4A56-B616-ACDAB9F5864D}"/>
   </bookViews>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,10 +217,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,7 +926,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="2">
-        <f>D3*E3*F3</f>
+        <f t="shared" ref="G3:G14" si="0">D3*E3*F3</f>
         <v>800</v>
       </c>
     </row>
@@ -948,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="2">
-        <f>D4*E4*F4</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -969,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <f>D5*E5*F5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -990,7 +989,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="2">
-        <f>D6*E6*F6</f>
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
     </row>
@@ -1011,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2">
-        <f>D7*E7*F7</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
     </row>
@@ -1032,7 +1031,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="2">
-        <f>D8*E8*F8</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
     </row>
@@ -1053,7 +1052,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="2">
-        <f>D9*E9*F9</f>
+        <f t="shared" si="0"/>
         <v>1280</v>
       </c>
     </row>
@@ -1074,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2">
-        <f>D10*E10*F10</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
     </row>
@@ -1095,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="2">
-        <f>D11*E11*F11</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -1116,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <f>D12*E12*F12</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -1137,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2">
-        <f>D13*E13*F13</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -1158,7 +1157,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="2">
-        <f>D14*E14*F14</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
@@ -1170,11 +1169,11 @@
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:E15" si="0">SUM(D3:D14)</f>
+        <f t="shared" ref="D15:E15" si="1">SUM(D3:D14)</f>
         <v>21</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
       <c r="F15" s="3">
@@ -1199,330 +1198,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8327AF-D7B5-451E-AAAC-66108A1AFCA9}">
-  <dimension ref="B1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="5" width="22" customWidth="1"/>
-    <col min="6" max="7" width="21.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2">
-        <f>D3*E3*F3</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <f>D13*E13*F13</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
-        <v>21</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>206</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="G15" s="3">
-        <f>SUM(G3:G14)</f>
-        <v>7607</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2FC7C-1C3F-4B04-A5F6-CE4CF730119C}">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1570,6 +1245,327 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>7607</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2FC7C-1C3F-4B04-A5F6-CE4CF730119C}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
         <v>10</v>
       </c>
       <c r="G3" s="2">
@@ -1717,11 +1713,11 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1825,11 +1821,11 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>2042</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
@@ -2810,11 +2806,12 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="5" width="22" customWidth="1"/>
     <col min="6" max="7" width="21.77734375" customWidth="1"/>
   </cols>

--- a/4 Sensors/Sensor Bits per Second Optimizing.xlsx
+++ b/4 Sensors/Sensor Bits per Second Optimizing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\GTOR-DAQ\4 Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225CF87-A6A4-4C0C-AD49-AC7E42CF5EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D53BFE-D6E5-471B-9B1A-7E4C977862BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{2C266F95-D56F-4A56-B616-ACDAB9F5864D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C266F95-D56F-4A56-B616-ACDAB9F5864D}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet #1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,13 @@
     <sheet name="Packet #6" sheetId="6" r:id="rId6"/>
     <sheet name="Packet #7" sheetId="7" r:id="rId7"/>
     <sheet name="Packet #8" sheetId="8" r:id="rId8"/>
+    <sheet name="Packet #9" sheetId="9" r:id="rId9"/>
+    <sheet name="Packet #10" sheetId="10" r:id="rId10"/>
+    <sheet name="Packet #11" sheetId="11" r:id="rId11"/>
+    <sheet name="Packet #12" sheetId="12" r:id="rId12"/>
+    <sheet name="Packet #13" sheetId="13" r:id="rId13"/>
+    <sheet name="Packet #14" sheetId="14" r:id="rId14"/>
+    <sheet name="Packet #15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="22">
   <si>
     <t>Data Type</t>
   </si>
@@ -105,16 +112,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>Max data points/sec</t>
+    <t>Minimum</t>
   </si>
   <si>
-    <t>Minimum data points/sec</t>
-  </si>
-  <si>
-    <t>Original packet</t>
-  </si>
-  <si>
-    <t>Higher speed and time</t>
+    <t>Maximum</t>
   </si>
 </sst>
 </file>
@@ -206,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +219,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432D2EA0-2A0E-4348-9BFC-C5F6D1A83843}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,11 +606,11 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2">
         <f>D3*E3*F3</f>
-        <v>320</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -623,11 +627,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>10</v>
+        <f>D4*E4*F4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -644,11 +648,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D5*E5*F5</f>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -665,11 +669,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>1920</v>
+        <f>D6*E6*F6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -686,11 +690,11 @@
         <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>D7*E7*F7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -707,11 +711,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f>D8*E8*F8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -728,11 +732,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>640</v>
+        <f>D9*E9*F9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -749,11 +753,11 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f>D10*E10*F10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -770,11 +774,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>D11*E11*F11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -791,11 +795,11 @@
         <v>12</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>D12*E12*F12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -812,11 +816,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <f>D13*E13*F13</f>
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -833,11 +837,11 @@
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <f>D14*E14*F14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -848,25 +852,25 @@
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <f t="shared" ref="D15" si="0">SUM(D3:D14)</f>
         <v>21</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>206</v>
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f>SUM(F3:F14)</f>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>4247</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -874,12 +878,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C39A25-0668-4FDA-843D-376DAC30AE90}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820266E1-D6DB-4F94-B5D5-C57A1A644AF6}">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,11 +927,11 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G14" si="0">D3*E3*F3</f>
-        <v>800</v>
+        <f>D3*E3*F3</f>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -944,11 +948,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -965,11 +969,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -986,11 +990,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1007,11 +1011,11 @@
         <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1028,11 +1032,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1049,11 +1053,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1070,11 +1074,11 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1091,11 +1095,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1112,11 +1116,11 @@
         <v>12</v>
       </c>
       <c r="F12" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1133,11 +1137,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f>D13*E13*F13</f>
+        <v>1800</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1154,11 +1158,11 @@
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1169,39 +1173,36 @@
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:E15" si="1">SUM(D3:D14)</f>
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
         <v>21</v>
       </c>
       <c r="E15" s="3">
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>206</v>
-      </c>
-      <c r="F15" s="3">
-        <f>SUM(F3:F14)</f>
-        <v>260</v>
+        <v>1500</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>9614</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8327AF-D7B5-451E-AAAC-66108A1AFCA9}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1BB34D-20E0-4FA4-B2D7-C251DD1F808A}">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,11 +1246,11 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G3" s="2">
         <f>D3*E3*F3</f>
-        <v>800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1266,11 +1267,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1287,11 +1288,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1308,11 +1309,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1329,11 +1330,11 @@
         <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1350,11 +1351,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1371,11 +1372,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1392,11 +1393,11 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1413,11 +1414,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,11 +1435,11 @@
         <v>12</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1455,11 +1456,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2">
         <f>D13*E13*F13</f>
-        <v>36</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1476,11 +1477,11 @@
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1495,34 +1496,32 @@
         <v>21</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>206</v>
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>1750</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>7607</v>
+        <v>67200</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2FC7C-1C3F-4B04-A5F6-CE4CF730119C}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E5E7E7-11BC-41A5-BBFA-20C7E6807FDC}">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,12 +1564,12 @@
       <c r="E3" s="2">
         <v>16</v>
       </c>
-      <c r="F3" s="2">
-        <v>10</v>
+      <c r="F3" s="5">
+        <v>500</v>
       </c>
       <c r="G3" s="2">
         <f>D3*E3*F3</f>
-        <v>160</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1586,12 +1585,12 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
+      <c r="F4" s="5">
+        <v>100</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1607,12 +1606,12 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
+      <c r="F5" s="5">
+        <v>100</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1628,12 +1627,12 @@
       <c r="E6" s="2">
         <v>32</v>
       </c>
-      <c r="F6" s="2">
-        <v>10</v>
+      <c r="F6" s="5">
+        <v>300</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1649,12 +1648,12 @@
       <c r="E7" s="2">
         <v>32</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
+      <c r="F7" s="5">
+        <v>200</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1670,12 +1669,12 @@
       <c r="E8" s="2">
         <v>12</v>
       </c>
-      <c r="F8" s="2">
-        <v>10</v>
+      <c r="F8" s="5">
+        <v>100</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1691,12 +1690,12 @@
       <c r="E9" s="2">
         <v>32</v>
       </c>
-      <c r="F9" s="2">
-        <v>10</v>
+      <c r="F9" s="5">
+        <v>100</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1712,12 +1711,12 @@
       <c r="E10" s="2">
         <v>32</v>
       </c>
-      <c r="F10" s="2">
-        <v>3</v>
+      <c r="F10" s="5">
+        <v>100</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1733,12 +1732,12 @@
       <c r="E11" s="2">
         <v>12</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
+      <c r="F11" s="5">
+        <v>50</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1754,12 +1753,12 @@
       <c r="E12" s="2">
         <v>12</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
+      <c r="F12" s="5">
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1775,12 +1774,12 @@
       <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
+      <c r="F13" s="5">
+        <v>50</v>
       </c>
       <c r="G13" s="2">
         <f>D13*E13*F13</f>
-        <v>36</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1796,12 +1795,12 @@
       <c r="E14" s="2">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
-        <v>1</v>
+      <c r="F14" s="5">
+        <v>200</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1816,34 +1815,32 @@
         <v>21</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>206</v>
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>1850</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>2138</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256EE24A-2EE2-4C4F-AD7B-9E2AB6DD038E}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B05BF-22D7-4500-8573-47A6D9DF24BE}">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,11 +1884,11 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G3" s="2">
         <f>D3*E3*F3</f>
-        <v>320</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1908,11 +1905,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1929,11 +1926,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1950,11 +1947,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>1920</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1971,11 +1968,11 @@
         <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1992,11 +1989,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2013,11 +2010,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2034,11 +2031,11 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2055,11 +2052,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2076,11 +2073,11 @@
         <v>12</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2097,11 +2094,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2">
         <f>D13*E13*F13</f>
-        <v>36</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2118,11 +2115,11 @@
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2137,34 +2134,32 @@
         <v>21</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>206</v>
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>4247</v>
+        <v>79800</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1968F7B-75C3-40CB-B1EA-4B658522FE17}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4128000F-584C-4E6A-BB62-4A690A519985}">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2208,11 +2203,11 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G3" s="2">
         <f>D3*E3*F3</f>
-        <v>320</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2229,11 +2224,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2250,11 +2245,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2271,11 +2266,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>1920</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2292,11 +2287,11 @@
         <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2313,11 +2308,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2334,11 +2329,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2355,11 +2350,11 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2376,11 +2371,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,11 +2392,11 @@
         <v>12</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2418,11 +2413,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2">
         <f>D13*E13*F13</f>
-        <v>36</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2439,11 +2434,11 @@
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2458,34 +2453,32 @@
         <v>21</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>206</v>
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>4247</v>
+        <v>79800</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB0771B-AC25-4BCE-A421-9FEB796E90D0}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3062BEB-7B30-450F-8F32-F5FA9451C098}">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2529,11 +2522,11 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G3" s="2">
         <f>D3*E3*F3</f>
-        <v>320</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2550,11 +2543,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2571,11 +2564,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2592,11 +2585,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>1920</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2613,11 +2606,11 @@
         <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2634,11 +2627,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2655,11 +2648,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2676,11 +2669,11 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2697,11 +2690,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2718,11 +2711,11 @@
         <v>12</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2739,11 +2732,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2">
         <f>D13*E13*F13</f>
-        <v>36</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2760,11 +2753,11 @@
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2779,22 +2772,1937 @@
         <v>21</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>206</v>
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>2200</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>4247</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C39A25-0668-4FDA-843D-376DAC30AE90}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <f>D4*E4*F4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <f>D5*E5*F5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f>D6*E6*F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f>D7*E7*F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f>D8*E8*F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f>D9*E9*F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f>D10*E10*F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f>D11*E11*F11</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f>D12*E12*F12</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f>D14*E14*F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15" si="0">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
+      </c>
+      <c r="F15" s="3">
+        <f>SUM(F3:F14)</f>
+        <v>330</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8327AF-D7B5-451E-AAAC-66108A1AFCA9}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>730</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2FC7C-1C3F-4B04-A5F6-CE4CF730119C}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>840</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>15160</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256EE24A-2EE2-4C4F-AD7B-9E2AB6DD038E}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>1030</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1968F7B-75C3-40CB-B1EA-4B658522FE17}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB0771B-AC25-4BCE-A421-9FEB796E90D0}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>1180</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2805,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA57258-4A78-471C-8AB7-2D326CAD2DE9}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2851,11 +4759,11 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G3" s="2">
         <f>D3*E3*F3</f>
-        <v>320</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2872,11 +4780,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2893,11 +4801,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2914,11 +4822,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>1920</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2935,11 +4843,11 @@
         <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2956,11 +4864,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2977,11 +4885,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2998,11 +4906,11 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3019,11 +4927,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3040,11 +4948,11 @@
         <v>12</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3061,11 +4969,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
         <f>D13*E13*F13</f>
-        <v>36</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3082,11 +4990,11 @@
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3101,22 +5009,339 @@
         <v>21</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>206</v>
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>1230</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>4247</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4190762C-6BD1-40BF-9BAA-2A68160BFCD3}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>500</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3*F3</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13*E13*F13</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4 Sensors/Sensor Bits per Second Optimizing.xlsx
+++ b/4 Sensors/Sensor Bits per Second Optimizing.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\GTOR-DAQ\4 Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D53BFE-D6E5-471B-9B1A-7E4C977862BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B66261-BEC9-405C-AF41-D7D2AA5E1851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C266F95-D56F-4A56-B616-ACDAB9F5864D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Packet #1" sheetId="1" r:id="rId1"/>
-    <sheet name="Packet #2" sheetId="2" r:id="rId2"/>
-    <sheet name="Packet #3" sheetId="3" r:id="rId3"/>
-    <sheet name="Packet #4" sheetId="4" r:id="rId4"/>
-    <sheet name="Packet #5" sheetId="5" r:id="rId5"/>
-    <sheet name="Packet #6" sheetId="6" r:id="rId6"/>
-    <sheet name="Packet #7" sheetId="7" r:id="rId7"/>
-    <sheet name="Packet #8" sheetId="8" r:id="rId8"/>
-    <sheet name="Packet #9" sheetId="9" r:id="rId9"/>
-    <sheet name="Packet #10" sheetId="10" r:id="rId10"/>
-    <sheet name="Packet #11" sheetId="11" r:id="rId11"/>
-    <sheet name="Packet #12" sheetId="12" r:id="rId12"/>
-    <sheet name="Packet #13" sheetId="13" r:id="rId13"/>
-    <sheet name="Packet #14" sheetId="14" r:id="rId14"/>
-    <sheet name="Packet #15" sheetId="15" r:id="rId15"/>
+    <sheet name="Variable Info" sheetId="16" r:id="rId1"/>
+    <sheet name="Packet #1" sheetId="1" r:id="rId2"/>
+    <sheet name="Packet #2" sheetId="2" r:id="rId3"/>
+    <sheet name="Packet #3" sheetId="3" r:id="rId4"/>
+    <sheet name="Packet #4" sheetId="4" r:id="rId5"/>
+    <sheet name="Packet #5" sheetId="5" r:id="rId6"/>
+    <sheet name="Packet #6" sheetId="6" r:id="rId7"/>
+    <sheet name="Packet #7" sheetId="7" r:id="rId8"/>
+    <sheet name="Packet #8" sheetId="8" r:id="rId9"/>
+    <sheet name="Packet #9" sheetId="9" r:id="rId10"/>
+    <sheet name="Packet #10" sheetId="10" r:id="rId11"/>
+    <sheet name="Packet #11" sheetId="11" r:id="rId12"/>
+    <sheet name="Packet #12" sheetId="12" r:id="rId13"/>
+    <sheet name="Packet #13" sheetId="13" r:id="rId14"/>
+    <sheet name="Packet #14" sheetId="14" r:id="rId15"/>
+    <sheet name="Packet #15" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="22">
   <si>
     <t>Data Type</t>
   </si>
@@ -169,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,11 +204,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +249,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,16 +590,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432D2EA0-2A0E-4348-9BFC-C5F6D1A83843}">
-  <dimension ref="B1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A9BCF0-9A48-4D91-A3E4-4391CDABC689}">
+  <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4190762C-6BD1-40BF-9BAA-2A68160BFCD3}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
     <col min="2" max="5" width="22" customWidth="1"/>
     <col min="6" max="7" width="21.77734375" customWidth="1"/>
   </cols>
@@ -606,11 +800,11 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G3" s="2">
         <f>D3*E3*F3</f>
-        <v>1600</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -627,11 +821,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
-        <f>D4*E4*F4</f>
-        <v>0</v>
+        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -651,7 +845,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="2">
-        <f>D5*E5*F5</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -669,11 +863,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G6" s="2">
-        <f>D6*E6*F6</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>19200</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -690,11 +884,11 @@
         <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2">
-        <f>D7*E7*F7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9600</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -711,11 +905,11 @@
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
-        <f>D8*E8*F8</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -732,11 +926,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
-        <f>D9*E9*F9</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -753,11 +947,11 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
-        <f>D10*E10*F10</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4800</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -774,11 +968,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
-        <f>D11*E11*F11</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -795,11 +989,11 @@
         <v>12</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
-        <f>D12*E12*F12</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -816,11 +1010,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2">
         <f>D13*E13*F13</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -837,11 +1031,11 @@
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2">
-        <f>D14*E14*F14</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -852,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15" si="0">SUM(D3:D14)</f>
+        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
         <v>21</v>
       </c>
       <c r="E15" s="3">
@@ -860,25 +1054,23 @@
         <v>434</v>
       </c>
       <c r="F15" s="3">
-        <f>SUM(F3:F14)</f>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>1400</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>1700</v>
+        <v>48800</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820266E1-D6DB-4F94-B5D5-C57A1A644AF6}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -1197,7 +1389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1BB34D-20E0-4FA4-B2D7-C251DD1F808A}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -1516,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E5E7E7-11BC-41A5-BBFA-20C7E6807FDC}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -1835,7 +2027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B05BF-22D7-4500-8573-47A6D9DF24BE}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -2154,7 +2346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4128000F-584C-4E6A-BB62-4A690A519985}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -2473,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3062BEB-7B30-450F-8F32-F5FA9451C098}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -2795,6 +2987,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432D2EA0-2A0E-4348-9BFC-C5F6D1A83843}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G14" si="0">D3*E3*F3</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15" si="1">SUM(D3:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
+        <v>434</v>
+      </c>
+      <c r="F15" s="3">
+        <f>SUM(F3:F14)</f>
+        <v>200</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(G3:G14)</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C39A25-0668-4FDA-843D-376DAC30AE90}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -2846,7 +3360,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="2">
-        <f>D3*E3*F3</f>
+        <f t="shared" ref="G3:G14" si="0">D3*E3*F3</f>
         <v>1600</v>
       </c>
     </row>
@@ -2867,7 +3381,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="2">
-        <f>D4*E4*F4</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2888,7 +3402,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="2">
-        <f>D5*E5*F5</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2909,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>D6*E6*F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2930,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f>D7*E7*F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2951,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f>D8*E8*F8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2972,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f>D9*E9*F9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2993,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f>D10*E10*F10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3014,7 +3528,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2">
-        <f>D11*E11*F11</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -3035,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2">
-        <f>D12*E12*F12</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -3056,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2">
-        <f>D13*E13*F13</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
     </row>
@@ -3077,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f>D14*E14*F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3089,7 +3603,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15" si="0">SUM(D3:D14)</f>
+        <f t="shared" ref="D15" si="1">SUM(D3:D14)</f>
         <v>21</v>
       </c>
       <c r="E15" s="3">
@@ -3114,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8327AF-D7B5-451E-AAAC-66108A1AFCA9}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -3433,7 +3947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2FC7C-1C3F-4B04-A5F6-CE4CF730119C}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -3752,7 +4266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256EE24A-2EE2-4C4F-AD7B-9E2AB6DD038E}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -4071,7 +4585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1968F7B-75C3-40CB-B1EA-4B658522FE17}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -4390,7 +4904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB0771B-AC25-4BCE-A421-9FEB796E90D0}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -4709,7 +5223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA57258-4A78-471C-8AB7-2D326CAD2DE9}">
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -5027,323 +5541,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4190762C-6BD1-40BF-9BAA-2A68160BFCD3}">
-  <dimension ref="B1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="5" width="22" customWidth="1"/>
-    <col min="6" max="7" width="21.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>500</v>
-      </c>
-      <c r="G3" s="2">
-        <f>D3*E3*F3</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2">
-        <v>200</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2">
-        <v>100</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2">
-        <v>50</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2">
-        <f>D13*E13*F13</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>100</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" ref="D15:F15" si="1">SUM(D3:D14)</f>
-        <v>21</v>
-      </c>
-      <c r="E15" s="3">
-        <f>SUMPRODUCT(D3:D14,E3:E14)</f>
-        <v>434</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="G15" s="3">
-        <f>SUM(G3:G14)</f>
-        <v>48800</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/4 Sensors/Sensor Bits per Second Optimizing.xlsx
+++ b/4 Sensors/Sensor Bits per Second Optimizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\GTOR-DAQ\4 Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B66261-BEC9-405C-AF41-D7D2AA5E1851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00486938-902F-4F31-ACAA-54229DD6354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C266F95-D56F-4A56-B616-ACDAB9F5864D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2C266F95-D56F-4A56-B616-ACDAB9F5864D}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Info" sheetId="16" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A9BCF0-9A48-4D91-A3E4-4391CDABC689}">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +756,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,7 +1713,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2351,7 +2351,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2416,11 +2416,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2437,11 +2437,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2650,11 +2650,11 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>79800</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
@@ -2669,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3062BEB-7B30-450F-8F32-F5FA9451C098}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,11 +2735,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G14" si="0">D4*E4*F4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2756,11 +2756,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2969,11 +2969,11 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G15" s="3">
         <f>SUM(G3:G14)</f>
-        <v>99000</v>
+        <v>99200</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
@@ -2990,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432D2EA0-2A0E-4348-9BFC-C5F6D1A83843}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
